--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Birlasoft Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Birlasoft Ltd/Pruned_Excel/Pruned_Year_combined.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
   <si>
     <t>Yearly Results of Birlasoft(in Rs. Cr.)</t>
   </si>
@@ -161,6 +161,81 @@
   </si>
   <si>
     <t>Mar '24</t>
+  </si>
+  <si>
+    <t>25.01</t>
+  </si>
+  <si>
+    <t>32.01</t>
+  </si>
+  <si>
+    <t>47.84</t>
+  </si>
+  <si>
+    <t>72.51</t>
+  </si>
+  <si>
+    <t>124.51</t>
+  </si>
+  <si>
+    <t>194.87</t>
+  </si>
+  <si>
+    <t>262.14</t>
+  </si>
+  <si>
+    <t>315.78</t>
+  </si>
+  <si>
+    <t>480.44</t>
+  </si>
+  <si>
+    <t>644.18</t>
+  </si>
+  <si>
+    <t>427.05</t>
+  </si>
+  <si>
+    <t>538.56</t>
+  </si>
+  <si>
+    <t>612.89</t>
+  </si>
+  <si>
+    <t>715.24</t>
+  </si>
+  <si>
+    <t>890.09</t>
+  </si>
+  <si>
+    <t>1,245.75</t>
+  </si>
+  <si>
+    <t>1,261.86</t>
+  </si>
+  <si>
+    <t>1,319.56</t>
+  </si>
+  <si>
+    <t>1,442.29</t>
+  </si>
+  <si>
+    <t>1,001.99</t>
+  </si>
+  <si>
+    <t>1,462.16</t>
+  </si>
+  <si>
+    <t>1,640.53</t>
+  </si>
+  <si>
+    <t>2,049.38</t>
+  </si>
+  <si>
+    <t>2,417.24</t>
+  </si>
+  <si>
+    <t>2,644.53</t>
   </si>
 </sst>
 </file>
@@ -602,14 +677,14 @@
       <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="B2">
-        <v>25.01</v>
+      <c r="B2" t="s">
+        <v>49</v>
       </c>
       <c r="C2">
-        <v>910.1416666666665</v>
+        <v>910.14</v>
       </c>
       <c r="D2">
-        <v>556.8204347826088</v>
+        <v>556.8200000000001</v>
       </c>
       <c r="E2">
         <v>1.03</v>
@@ -618,28 +693,28 @@
         <v>20.37</v>
       </c>
       <c r="G2">
-        <v>137.8833333333333</v>
+        <v>137.88</v>
       </c>
       <c r="H2">
         <v>0.05</v>
       </c>
       <c r="I2">
-        <v>147.53875</v>
+        <v>147.54</v>
       </c>
       <c r="J2">
         <v>0.3</v>
       </c>
       <c r="K2">
-        <v>140.8375</v>
+        <v>140.84</v>
       </c>
       <c r="L2">
-        <v>141.795</v>
+        <v>141.79</v>
       </c>
       <c r="M2">
-        <v>32.56521739130435</v>
+        <v>32.57</v>
       </c>
       <c r="N2">
-        <v>110.5854166666667</v>
+        <v>110.59</v>
       </c>
       <c r="O2">
         <v>3.36</v>
@@ -651,39 +726,39 @@
         <v>16</v>
       </c>
       <c r="R2">
-        <v>83.15217391304348</v>
+        <v>83.15000000000001</v>
       </c>
       <c r="S2">
-        <v>7.972142857142857</v>
+        <v>7.97</v>
       </c>
       <c r="T2">
-        <v>7.769285714285714</v>
+        <v>7.77</v>
       </c>
       <c r="U2">
-        <v>8.157857142857143</v>
+        <v>8.16</v>
       </c>
       <c r="V2">
-        <v>7.945714285714286</v>
+        <v>7.95</v>
       </c>
       <c r="W2">
-        <v>6.447857142857144</v>
+        <v>6.45</v>
       </c>
       <c r="X2">
-        <v>71.84214285714286</v>
+        <v>71.84</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" t="s">
         <v>25</v>
       </c>
-      <c r="B3">
-        <v>32.01</v>
+      <c r="B3" t="s">
+        <v>50</v>
       </c>
       <c r="C3">
         <v>32.01</v>
       </c>
       <c r="D3">
-        <v>556.8204347826088</v>
+        <v>556.8200000000001</v>
       </c>
       <c r="E3">
         <v>1.19</v>
@@ -710,7 +785,7 @@
         <v>-0.26</v>
       </c>
       <c r="M3">
-        <v>32.56521739130435</v>
+        <v>32.57</v>
       </c>
       <c r="N3">
         <v>-0.26</v>
@@ -725,33 +800,33 @@
         <v>15.17</v>
       </c>
       <c r="R3">
-        <v>83.15217391304348</v>
+        <v>83.15000000000001</v>
       </c>
       <c r="S3">
-        <v>7.972142857142857</v>
+        <v>7.97</v>
       </c>
       <c r="T3">
-        <v>7.769285714285714</v>
+        <v>7.77</v>
       </c>
       <c r="U3">
-        <v>8.157857142857143</v>
+        <v>8.16</v>
       </c>
       <c r="V3">
-        <v>7.945714285714286</v>
+        <v>7.95</v>
       </c>
       <c r="W3">
-        <v>6.447857142857144</v>
+        <v>6.45</v>
       </c>
       <c r="X3">
-        <v>71.84214285714286</v>
+        <v>71.84</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" t="s">
         <v>26</v>
       </c>
-      <c r="B4">
-        <v>47.84</v>
+      <c r="B4" t="s">
+        <v>51</v>
       </c>
       <c r="C4">
         <v>47.84</v>
@@ -802,16 +877,16 @@
         <v>5</v>
       </c>
       <c r="S4">
-        <v>7.972142857142857</v>
+        <v>7.97</v>
       </c>
       <c r="T4">
-        <v>7.769285714285714</v>
+        <v>7.77</v>
       </c>
       <c r="U4">
-        <v>8.157857142857143</v>
+        <v>8.16</v>
       </c>
       <c r="V4">
-        <v>7.945714285714286</v>
+        <v>7.95</v>
       </c>
       <c r="W4">
         <v>0.31</v>
@@ -824,8 +899,8 @@
       <c r="A5" t="s">
         <v>27</v>
       </c>
-      <c r="B5">
-        <v>72.51000000000001</v>
+      <c r="B5" t="s">
+        <v>52</v>
       </c>
       <c r="C5">
         <v>72.51000000000001</v>
@@ -843,7 +918,7 @@
         <v>9.199999999999999</v>
       </c>
       <c r="H5">
-        <v>10.53590909090909</v>
+        <v>10.54</v>
       </c>
       <c r="I5">
         <v>9.199999999999999</v>
@@ -876,16 +951,16 @@
         <v>17.5</v>
       </c>
       <c r="S5">
-        <v>7.972142857142857</v>
+        <v>7.97</v>
       </c>
       <c r="T5">
-        <v>7.769285714285714</v>
+        <v>7.77</v>
       </c>
       <c r="U5">
-        <v>8.157857142857143</v>
+        <v>8.16</v>
       </c>
       <c r="V5">
-        <v>7.945714285714286</v>
+        <v>7.95</v>
       </c>
       <c r="W5">
         <v>0.38</v>
@@ -898,8 +973,8 @@
       <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6">
-        <v>124.51</v>
+      <c r="B6" t="s">
+        <v>53</v>
       </c>
       <c r="C6">
         <v>124.51</v>
@@ -917,7 +992,7 @@
         <v>14.72</v>
       </c>
       <c r="H6">
-        <v>10.53590909090909</v>
+        <v>10.54</v>
       </c>
       <c r="I6">
         <v>14.72</v>
@@ -950,16 +1025,16 @@
         <v>20</v>
       </c>
       <c r="S6">
-        <v>7.972142857142857</v>
+        <v>7.97</v>
       </c>
       <c r="T6">
-        <v>7.769285714285714</v>
+        <v>7.77</v>
       </c>
       <c r="U6">
-        <v>8.157857142857143</v>
+        <v>8.16</v>
       </c>
       <c r="V6">
-        <v>7.945714285714286</v>
+        <v>7.95</v>
       </c>
       <c r="W6">
         <v>0.4</v>
@@ -972,8 +1047,8 @@
       <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="B7">
-        <v>194.87</v>
+      <c r="B7" t="s">
+        <v>54</v>
       </c>
       <c r="C7">
         <v>194.87</v>
@@ -991,7 +1066,7 @@
         <v>24.15</v>
       </c>
       <c r="H7">
-        <v>10.53590909090909</v>
+        <v>10.54</v>
       </c>
       <c r="I7">
         <v>24.15</v>
@@ -1024,16 +1099,16 @@
         <v>35</v>
       </c>
       <c r="S7">
-        <v>7.972142857142857</v>
+        <v>7.97</v>
       </c>
       <c r="T7">
-        <v>7.769285714285714</v>
+        <v>7.77</v>
       </c>
       <c r="U7">
-        <v>8.157857142857143</v>
+        <v>8.16</v>
       </c>
       <c r="V7">
-        <v>7.945714285714286</v>
+        <v>7.95</v>
       </c>
       <c r="W7">
         <v>1.01</v>
@@ -1046,8 +1121,8 @@
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8">
-        <v>262.14</v>
+      <c r="B8" t="s">
+        <v>55</v>
       </c>
       <c r="C8">
         <v>262.14</v>
@@ -1098,16 +1173,16 @@
         <v>35</v>
       </c>
       <c r="S8">
-        <v>7.972142857142857</v>
+        <v>7.97</v>
       </c>
       <c r="T8">
-        <v>7.769285714285714</v>
+        <v>7.77</v>
       </c>
       <c r="U8">
-        <v>8.157857142857143</v>
+        <v>8.16</v>
       </c>
       <c r="V8">
-        <v>7.945714285714286</v>
+        <v>7.95</v>
       </c>
       <c r="W8">
         <v>1.07</v>
@@ -1120,8 +1195,8 @@
       <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="B9">
-        <v>315.78</v>
+      <c r="B9" t="s">
+        <v>56</v>
       </c>
       <c r="C9">
         <v>315.78</v>
@@ -1172,16 +1247,16 @@
         <v>35</v>
       </c>
       <c r="S9">
-        <v>7.972142857142857</v>
+        <v>7.97</v>
       </c>
       <c r="T9">
-        <v>7.769285714285714</v>
+        <v>7.77</v>
       </c>
       <c r="U9">
-        <v>8.157857142857143</v>
+        <v>8.16</v>
       </c>
       <c r="V9">
-        <v>7.945714285714286</v>
+        <v>7.95</v>
       </c>
       <c r="W9">
         <v>5.54</v>
@@ -1194,8 +1269,8 @@
       <c r="A10" t="s">
         <v>32</v>
       </c>
-      <c r="B10">
-        <v>480.44</v>
+      <c r="B10" t="s">
+        <v>57</v>
       </c>
       <c r="C10">
         <v>480.44</v>
@@ -1246,16 +1321,16 @@
         <v>35</v>
       </c>
       <c r="S10">
-        <v>7.972142857142857</v>
+        <v>7.97</v>
       </c>
       <c r="T10">
-        <v>7.769285714285714</v>
+        <v>7.77</v>
       </c>
       <c r="U10">
-        <v>8.157857142857143</v>
+        <v>8.16</v>
       </c>
       <c r="V10">
-        <v>7.945714285714286</v>
+        <v>7.95</v>
       </c>
       <c r="W10">
         <v>5.87</v>
@@ -1268,8 +1343,8 @@
       <c r="A11" t="s">
         <v>33</v>
       </c>
-      <c r="B11">
-        <v>644.1799999999999</v>
+      <c r="B11" t="s">
+        <v>58</v>
       </c>
       <c r="C11">
         <v>644.1799999999999</v>
@@ -1320,16 +1395,16 @@
         <v>30</v>
       </c>
       <c r="S11">
-        <v>7.972142857142857</v>
+        <v>7.97</v>
       </c>
       <c r="T11">
-        <v>7.769285714285714</v>
+        <v>7.77</v>
       </c>
       <c r="U11">
-        <v>8.157857142857143</v>
+        <v>8.16</v>
       </c>
       <c r="V11">
-        <v>7.945714285714286</v>
+        <v>7.95</v>
       </c>
       <c r="W11">
         <v>5.66</v>
@@ -1342,8 +1417,8 @@
       <c r="A12" t="s">
         <v>34</v>
       </c>
-      <c r="B12">
-        <v>427.05</v>
+      <c r="B12" t="s">
+        <v>59</v>
       </c>
       <c r="C12">
         <v>427.05</v>
@@ -1394,16 +1469,16 @@
         <v>35</v>
       </c>
       <c r="S12">
-        <v>7.972142857142857</v>
+        <v>7.97</v>
       </c>
       <c r="T12">
-        <v>7.769285714285714</v>
+        <v>7.77</v>
       </c>
       <c r="U12">
-        <v>8.157857142857143</v>
+        <v>8.16</v>
       </c>
       <c r="V12">
-        <v>7.945714285714286</v>
+        <v>7.95</v>
       </c>
       <c r="W12">
         <v>5.45</v>
@@ -1416,8 +1491,8 @@
       <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="B13">
-        <v>538.5599999999999</v>
+      <c r="B13" t="s">
+        <v>60</v>
       </c>
       <c r="C13">
         <v>538.5599999999999</v>
@@ -1490,8 +1565,8 @@
       <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="B14">
-        <v>612.89</v>
+      <c r="B14" t="s">
+        <v>61</v>
       </c>
       <c r="C14">
         <v>612.89</v>
@@ -1564,8 +1639,8 @@
       <c r="A15" t="s">
         <v>37</v>
       </c>
-      <c r="B15">
-        <v>715.24</v>
+      <c r="B15" t="s">
+        <v>62</v>
       </c>
       <c r="C15">
         <v>715.24</v>
@@ -1638,8 +1713,8 @@
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16">
-        <v>890.09</v>
+      <c r="B16" t="s">
+        <v>63</v>
       </c>
       <c r="C16">
         <v>890.09</v>
@@ -1712,8 +1787,8 @@
       <c r="A17" t="s">
         <v>39</v>
       </c>
-      <c r="B17">
-        <v>358.8746666666667</v>
+      <c r="B17" t="s">
+        <v>64</v>
       </c>
       <c r="C17">
         <v>1245.75</v>
@@ -1786,8 +1861,8 @@
       <c r="A18" t="s">
         <v>40</v>
       </c>
-      <c r="B18">
-        <v>358.8746666666667</v>
+      <c r="B18" t="s">
+        <v>65</v>
       </c>
       <c r="C18">
         <v>1261.86</v>
@@ -1850,18 +1925,18 @@
         <v>10.1</v>
       </c>
       <c r="W18">
-        <v>6.447857142857144</v>
+        <v>6.45</v>
       </c>
       <c r="X18">
-        <v>71.84214285714286</v>
+        <v>71.84</v>
       </c>
     </row>
     <row r="19" spans="1:24">
       <c r="A19" t="s">
         <v>41</v>
       </c>
-      <c r="B19">
-        <v>358.8746666666667</v>
+      <c r="B19" t="s">
+        <v>66</v>
       </c>
       <c r="C19">
         <v>1319.56</v>
@@ -1924,18 +1999,18 @@
         <v>8.470000000000001</v>
       </c>
       <c r="W19">
-        <v>6.447857142857144</v>
+        <v>6.45</v>
       </c>
       <c r="X19">
-        <v>71.84214285714286</v>
+        <v>71.84</v>
       </c>
     </row>
     <row r="20" spans="1:24">
       <c r="A20" t="s">
         <v>42</v>
       </c>
-      <c r="B20">
-        <v>358.8746666666667</v>
+      <c r="B20" t="s">
+        <v>67</v>
       </c>
       <c r="C20">
         <v>1442.29</v>
@@ -1998,18 +2073,18 @@
         <v>8.91</v>
       </c>
       <c r="W20">
-        <v>6.447857142857144</v>
+        <v>6.45</v>
       </c>
       <c r="X20">
-        <v>71.84214285714286</v>
+        <v>71.84</v>
       </c>
     </row>
     <row r="21" spans="1:24">
       <c r="A21" t="s">
         <v>43</v>
       </c>
-      <c r="B21">
-        <v>358.8746666666667</v>
+      <c r="B21" t="s">
+        <v>68</v>
       </c>
       <c r="C21">
         <v>1001.99</v>
@@ -2072,18 +2147,18 @@
         <v>7.74</v>
       </c>
       <c r="W21">
-        <v>6.447857142857144</v>
+        <v>6.45</v>
       </c>
       <c r="X21">
-        <v>71.84214285714286</v>
+        <v>71.84</v>
       </c>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
         <v>44</v>
       </c>
-      <c r="B22">
-        <v>358.8746666666667</v>
+      <c r="B22" t="s">
+        <v>69</v>
       </c>
       <c r="C22">
         <v>1462.16</v>
@@ -2146,18 +2221,18 @@
         <v>5.05</v>
       </c>
       <c r="W22">
-        <v>6.447857142857144</v>
+        <v>6.45</v>
       </c>
       <c r="X22">
-        <v>71.84214285714286</v>
+        <v>71.84</v>
       </c>
     </row>
     <row r="23" spans="1:24">
       <c r="A23" t="s">
         <v>45</v>
       </c>
-      <c r="B23">
-        <v>358.8746666666667</v>
+      <c r="B23" t="s">
+        <v>70</v>
       </c>
       <c r="C23">
         <v>1640.53</v>
@@ -2220,18 +2295,18 @@
         <v>6.81</v>
       </c>
       <c r="W23">
-        <v>6.447857142857144</v>
+        <v>6.45</v>
       </c>
       <c r="X23">
-        <v>71.84214285714286</v>
+        <v>71.84</v>
       </c>
     </row>
     <row r="24" spans="1:24">
       <c r="A24" t="s">
         <v>46</v>
       </c>
-      <c r="B24">
-        <v>358.8746666666667</v>
+      <c r="B24" t="s">
+        <v>71</v>
       </c>
       <c r="C24">
         <v>2049.38</v>
@@ -2294,18 +2369,18 @@
         <v>10.49</v>
       </c>
       <c r="W24">
-        <v>6.447857142857144</v>
+        <v>6.45</v>
       </c>
       <c r="X24">
-        <v>71.84214285714286</v>
+        <v>71.84</v>
       </c>
     </row>
     <row r="25" spans="1:24">
       <c r="A25" t="s">
         <v>47</v>
       </c>
-      <c r="B25">
-        <v>358.8746666666667</v>
+      <c r="B25" t="s">
+        <v>72</v>
       </c>
       <c r="C25">
         <v>2417.24</v>
@@ -2368,18 +2443,18 @@
         <v>7.2</v>
       </c>
       <c r="W25">
-        <v>6.447857142857144</v>
+        <v>6.45</v>
       </c>
       <c r="X25">
-        <v>71.84214285714286</v>
+        <v>71.84</v>
       </c>
     </row>
     <row r="26" spans="1:24">
       <c r="A26" t="s">
         <v>48</v>
       </c>
-      <c r="B26">
-        <v>358.8746666666667</v>
+      <c r="B26" t="s">
+        <v>73</v>
       </c>
       <c r="C26">
         <v>2644.53</v>
@@ -2442,10 +2517,10 @@
         <v>10.66</v>
       </c>
       <c r="W26">
-        <v>6.447857142857144</v>
+        <v>6.45</v>
       </c>
       <c r="X26">
-        <v>71.84214285714286</v>
+        <v>71.84</v>
       </c>
     </row>
   </sheetData>
